--- a/pcb/BOM_BlueSmart_vedirect_PCB_BlueSmart_vedirect.xlsx
+++ b/pcb/BOM_BlueSmart_vedirect_PCB_BlueSmart_vedirect.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>No.</t>
   </si>
@@ -88,7 +88,28 @@
     <t>3</t>
   </si>
   <si>
-    <t>PH-4P卧贴</t>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>CT41G-0402-2X1-16V-0.1μF-K(N)</t>
+  </si>
+  <si>
+    <t>TORCH(火炬)</t>
+  </si>
+  <si>
+    <t>C141382</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>VE.direct</t>
   </si>
   <si>
     <t>VE.D1</t>
@@ -477,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -587,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -599,23 +620,55 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/pcb/BOM_BlueSmart_vedirect_PCB_BlueSmart_vedirect.xlsx
+++ b/pcb/BOM_BlueSmart_vedirect_PCB_BlueSmart_vedirect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_BlueSmart_vedirect_PCB_Blue" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2023-09-22" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -109,19 +109,19 @@
     <t>4</t>
   </si>
   <si>
-    <t>VE.direct</t>
-  </si>
-  <si>
-    <t>VE.D1</t>
-  </si>
-  <si>
-    <t>CONN-SMD_PH2.0-4PWB</t>
-  </si>
-  <si>
-    <t>BOOMELE(博穆精密)</t>
-  </si>
-  <si>
-    <t>C50137</t>
+    <t>HDGC2001WR-4P</t>
+  </si>
+  <si>
+    <t>VE.DIRECT1</t>
+  </si>
+  <si>
+    <t>CONN-TH_4P-P2.00_HDGC_HDGC2001WR-4P</t>
+  </si>
+  <si>
+    <t>HDGC(华德共创)</t>
+  </si>
+  <si>
+    <t>C5175241</t>
   </si>
 </sst>
 </file>
